--- a/src/test/resources/data/模板.xlsx
+++ b/src/test/resources/data/模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
   <si>
     <t>select * from user;</t>
   </si>
@@ -44,9 +53,6 @@
   </si>
   <si>
     <t>userid</t>
-  </si>
-  <si>
-    <t>001</t>
   </si>
   <si>
     <t>姓名正确</t>
@@ -1206,17 +1212,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1230,35 +1247,38 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1273,30 +1293,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
